--- a/Reports/finished_goods_inventory.xlsx
+++ b/Reports/finished_goods_inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iese365-my.sharepoint.com/personal/harel_lichtenstein_iese_net/Documents/Desktop/IESE/EMBA 2026/Term 5/Executive Management Simulation - B-E1/Session 1/Report Samples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iese365-my.sharepoint.com/personal/harel_lichtenstein_iese_net/Documents/Desktop/AI Tests/EXSIM models/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4BEAF69-854F-4481-A9D3-CA0A38F11E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{A4BEAF69-854F-4481-A9D3-CA0A38F11E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB4D4CB-AC36-46BF-A9F3-D1744DFEEF23}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="3570" windowWidth="21555" windowHeight="18030" xr2:uid="{FD4FE8B0-E453-42B2-A545-0E58AB8C3A17}"/>
+    <workbookView xWindow="12540" yWindow="1560" windowWidth="38280" windowHeight="18030" xr2:uid="{FD4FE8B0-E453-42B2-A545-0E58AB8C3A17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -753,15 +753,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1140,361 +1140,364 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A14" sqref="A14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="5" t="s">
+      <c r="K11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1504,322 +1507,322 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="4" t="s">
+      <c r="K16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="4" t="s">
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="G20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="5" t="s">
+      <c r="K21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="4" t="s">
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1829,322 +1832,322 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="4" t="s">
+      <c r="K26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="G27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="I27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="4" t="s">
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="4" t="s">
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="E30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="G30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="4" t="s">
+      <c r="I30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="5" t="s">
+      <c r="K31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="4" t="s">
+      <c r="B32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2154,322 +2157,322 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="4" t="s">
+      <c r="B36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="4" t="s">
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="4" t="s">
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="4" t="s">
+      <c r="B39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" s="4" t="s">
+      <c r="B40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L41" s="5" t="s">
+      <c r="B41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L42" s="4" t="s">
+      <c r="B42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2479,322 +2482,322 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L46" s="4" t="s">
+      <c r="B46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="4" t="s">
+      <c r="B47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L48" s="4" t="s">
+      <c r="B48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L49" s="4" t="s">
+      <c r="B49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L50" s="4" t="s">
+      <c r="B50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L51" s="5" t="s">
+      <c r="B51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L52" s="4" t="s">
+      <c r="B52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="2" t="s">
         <v>19</v>
       </c>
     </row>
